--- a/LMS_Library_API/DETHI03.xlsx
+++ b/LMS_Library_API/DETHI03.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
   <si>
     <t>ID:</t>
   </si>
@@ -27,7 +27,7 @@
     <t>Tên đề thi:</t>
   </si>
   <si>
-    <t>THi GHK1</t>
+    <t xml:space="preserve">Thi Giữa Học Kì </t>
   </si>
   <si>
     <t>Hình thức:</t>
@@ -69,7 +69,7 @@
     <t>Ghi chú:</t>
   </si>
   <si>
-    <t/>
+    <t>Có 1 câu liệt</t>
   </si>
   <si>
     <t>Giảng viên tạo:</t>
@@ -81,43 +81,73 @@
     <t>Trạng thái:</t>
   </si>
   <si>
-    <t>Đã phê duyệt</t>
+    <t>Đang chờ phê duyệt</t>
   </si>
   <si>
     <t>Câu 1:</t>
   </si>
   <si>
-    <t>Câu hỏi 1</t>
+    <t>Trong cấu trúc chương trình C++, lệnh #include dùng để làm gì?</t>
   </si>
   <si>
     <t>A.</t>
   </si>
   <si>
-    <t>Câu A.</t>
+    <t>Thông báo trong chương trình sử dụng các lệnh tính toán, thông báo các biến sử dụng trong thân chương trình.</t>
   </si>
   <si>
     <t>B.</t>
   </si>
   <si>
-    <t>Câu B.</t>
+    <t>Khai báo các câu lệnh được sử dụng trong chương trình. Phải tạo các câu lệnh trước thì mới sử dụng được trong chương trình C++.</t>
   </si>
   <si>
     <t>C.</t>
   </si>
   <si>
-    <t>Câu C.</t>
+    <t>Thông báo cho bộ tiền biên dịch thêm các thư viện chuẩn trong C++. Các lệnh được sử dụng trong thân chương trình phải có prototype nằm trong các thư viện chuẩn này.</t>
   </si>
   <si>
     <t>D.</t>
   </si>
   <si>
-    <t>Câu D.</t>
+    <t>Không có đáp án đúng.</t>
   </si>
   <si>
     <t>Câu 2:</t>
   </si>
   <si>
-    <t>Câu hỏi 2 nè</t>
+    <t>Trong cấu trúc chương trình C++ có bao nhiêu hàm main()?</t>
+  </si>
+  <si>
+    <t>1.</t>
+  </si>
+  <si>
+    <t>2.</t>
+  </si>
+  <si>
+    <t>3.</t>
+  </si>
+  <si>
+    <t>4.</t>
+  </si>
+  <si>
+    <t>Câu 3:</t>
+  </si>
+  <si>
+    <t>Lệnh cout trong C++ có tác dụng gì?</t>
+  </si>
+  <si>
+    <t>Là stream đầu ra chuẩn trong C++.</t>
+  </si>
+  <si>
+    <t>Là lệnh chú thích trong C++.</t>
+  </si>
+  <si>
+    <t>Là stream đầu vào chuẩn của C++.</t>
+  </si>
+  <si>
+    <t>Là lệnh khai báo một biến.</t>
   </si>
   <si>
     <t>Evaluation Only. Created with Aspose.Cells for .NET.Copyright 2003 - 2024 Aspose Pty Ltd.</t>
@@ -623,8 +653,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46e70d1f-3aaa-44a9-adfe-67c500d6c911}">
-  <dimension ref="A1:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08941ee6-f81b-4a24-8345-285d991937bd}">
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -655,10 +685,10 @@
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -683,10 +713,10 @@
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -733,11 +763,11 @@
       <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>25</v>
+      <c r="F8" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="12.75">
@@ -751,7 +781,7 @@
         <v>26</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="12.75">
@@ -765,7 +795,7 @@
         <v>28</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="12.75">
@@ -775,24 +805,65 @@
       <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>31</v>
+      <c r="F11" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="4:5" ht="12.75">
+      <c r="D13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="5:6" ht="12.75">
+      <c r="E14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="5:6" ht="12.75">
+      <c r="E15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="5:6" ht="12.75">
+      <c r="E16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" ht="12.75">
+      <c r="E17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="E1:R1"/>
     <mergeCell ref="E7:R7"/>
+    <mergeCell ref="E13:R13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63e97a50-e5bf-454d-851b-07664d38777e}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{d683cfe4-b9cc-4781-96bc-6b78749ad577}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
@@ -801,7 +872,7 @@
   <sheetData>
     <row r="5" spans="1:1" ht="23.25" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
